--- a/literature_research/FS_scopus/FS_community.xlsx
+++ b/literature_research/FS_scopus/FS_community.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLIMATE CHANGE AND FOOD SECURITY: FROM THE ONE HEALTH APPROACH TO THE HOLISTIC MODELS OF THE GLOBAL SOUTH; [Cambiamento climatico e sicurezza alimentare: dall’approccio One Health ai modelli olistici del Global South]</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The article analyzes the impact of climate change on food security and the right to food, exploring different regulatory models deemed to address the challenges produced by climate change in food systems, within the framework of recommendations from international institutions. The essay identifies certain integrated regulatory approaches applicable to agrifood regulation on which a widespread consensus in the scientific community and among international institutions may be appreciated. Among these are the One Health approach, the ecosystem approach, the models inspired by agroecology, and the so-called human rights-based approach (HRB). The paper discusses their effectiveness in promoting food security and climate resilience, attempting to verify the presence of regulatory provisions inspired by such approaches in existing food legislation. In such respect, the article examines the recent European “From farm to fork” strategy and certain approaches in the context of the Global South. © 2023, BioLaw Journal. All Rights Reserved.</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Community Perspectives on Inuit Country Food Insecurity in Gjoa Haven, Nunavut</t>
+          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This paper explores how policies and programs can better support country food security and food sovereignty in Gjoa Haven, Nunavut. Through a series of six focus groups with a total of 74 participants, we explore the challenges that Elders, youth, hunters, food preparers, and program providers face in the access, availability, quality, and use of country food. Despite the diverse representation among focus groups, participants revealed similar challenges across demographics and highlighted how tailored policies and programs can provide complementary solutions that serve more than one purpose. We argue that policies and programs targeting financial and economic challenges; resources and infrastructure; and skills and knowledge will improve country food security and will promote food sovereignty. Ultimately, policies and programs must be community informed and tailored to their current context and community dynamics. However, the recommendations we provide could be adapted to other Arctic communities experiencing similar challenges. © The Arctic Institute of North America.</t>
+          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
+          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
+          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
+          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NATURE AND FOOD COMMODIFICATION. FOOD SOVEREIGNTY: RETHINKING THE RELATION BETWEEN HUMAN AND NATURE1; [Priroda i komodifikacija hrane. Prehrambeni suverenitet: promišljanje odnosa između čoveka i prirode]</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The article aims to explore the link between commodification of nature and commodification of food. The latter is in fact one of the most negative and controversial aspects of nature commodification. The examination of food commodification represents fertile ground for investigating the relationship between humans and nature. In this context, food sovereignty provides a useful paradigm that not only serves as an alternative to the current food regime, but also allows for the experiencing a different kind of relationship between humans and nature. Food sovereignty represents a unique social movement in which community, political, and cultural rights are intertwined with the issue of food. Through its multidisciplinary approach and its strongly ethical component, food sovereignty constitutes an opportunity in order to contrast the progressive commodification of nature and of the environment. © 2022, University of Belgrade - Institute for Philosophy and Social Theory. All rights reserved.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Re-imagining the UN Committee on World Food Security</t>
+          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This article argues that the United Nations Committee on World Food Security can and must serve as a space for catalyzing and strengthening public interest-oriented food systems governance grounded in the human rights framework. This would necessarily entail confronting the fragmentation of governance and erasure of accountability promoted by corporate designed multi-stakeholderism, and democratizing multilateralism through genuine participation of rights holders, public scrutiny and participatory science. Pivotal to this endeavor is arresting the growing corporate influence in governance mechanisms and reorienting them towards reinvigorating relationships among people, communities and governments. © 2021, Society for International Development.</t>
+          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wild food plants traditionally gathered in central Armenia: archaic ingredients or future sustainable foods?</t>
+          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Current debate highlights that sustainable food systems can be fostered by the cautious and germane use of natural resources. Gathering, cooking, and consuming wild food plants that are widely available in a given environment are traditional practices that in many parts of the world have historically been crucial for effecting the food security and food sovereignty of local communities. In the current study, we analyzed the traditional foraging patterns of Armenians, Pontic Greeks, Molokans, and Yazidis living in a mountainous area of central Armenia; via 64 semi-structured interviews, 66 wild food folk taxa were recorded and identified. While Armenians and Greeks gather a remarkable number of wild food plants (36 and 31, respectively) and share approximately half of them, Molokans and, more remarkable, Yazidis gather less wild food plants (24 and 17, respectively) and share only a few plants with Armenians. This may be due not only to the fact that the latter ethno-religious groups have followed endogamic marriage patterns for centuries, which may have limited the exchange of plant knowledge and practices with their Armenian neighbors, but also to the difficult adaptation to a new environment that Yazidis experienced after moving from Eastern Anatolia and the Nineveh Plains to the study area around a century ago. The traditional practice of gathering wild plants for food is, however, still vividly alive among locals in central Armenia and at least a part of this bio-cultural heritage could represent one of the future pillars of local sustainable food systems and platforms. © 2020, Springer Nature B.V.</t>
+          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Beyond sustainability in food systems: Perspectives from agroecology and social innovation</t>
+          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Food security faces many multifaceted challenges, with effects ranging far beyond the sectors of agriculture and food science and involving all the multiscale components of sustainability. This paper puts forward our point of view about more sustainable and responsible approaches to food production research underlying the importance of knowledge and social innovation in agroecological practices. Increased demand for food worldwide and the diversification of food choices would suggest the adoption of highly productive, but low-resilient and unsustainable food production models. However, new perspectives are possible. These include the revitalization and valorization of family-based traditional agriculture and the promotion of diversified farming systems as a social and economic basis to foster social-ecological conversion. Additionally, they encompass the forecasting of the Participatory Guarantee Systems (PGS) and the drafting of a new agenda for food sovereignty. Thanks to a desk analysis, the study describes and discusses these perspectives, their trajectories and action research implications. The results suggest the need to adopt a more inclusive and systemic approach to the described problems, as the solutions require the promotion of responsibility within decision makers, professionals and consumers. This appears essential for reading, analyzing and understanding the complex ecological-functional, social and economic relations that characterize farming systems, as well as mobilizing local communities. © 2020 by the authors.</t>
+          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Diverse seeds – shared practices: Conceptualizing seed commons</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Commons approaches in the seed sector are multi-faceted: They span from traditional seed systems, i.e. seed sharing networks, to recent anti-enclosure movements that resist intellectual property rights on varieties, like organic breeding initiatives. This paper derives a conceptualization of ‘Seed Commons’ at the local and regional level, based on a comprehensive transdisciplinary research process that integrates diverse types of knowledge, both from practitioners (German and Philippine seed initiatives, companies and NGOs), and the scientific community. As a result, we identify four core criteria that characterize diverse Seed Commons arrangements at local and regional scales: (1) collective responsibility, (2) protection from private enclosure, (3) collective, polycentric management, and (4) sharing of formal and practical knowledge. Discussing these Seed Commons criteria in the context of different Commons approaches, we find that Seed Commons transcend the distinction between traditional (natural resource) Commons and New Commons approaches, by integrating biophysical, informational and cultural elements in their collective governance. Reaching beyond resource characteristics, the Seed Commons criteria reflect practices of Commoning, which aim to fulfill social functions such as farmer empowerment and food sovereignty. © 2020 The Author(s).</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,15 +1664,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Feeding Prometheus: An Interdisciplinary Approach for Solving the Global Food Crisis</t>
+          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The current global food system is inadequate to meet the needs of the current world population without compromising future well-being. For example, current intensified production systems lead to undernutrition in some regions coupled with epidemics of obesity in others while compromising their underlying ecological foundations, such as creating areas of ocean hypoxia. Such common observations challenge the research community to ask new types of basic questions and apply novel analytical frameworks for analyzing them. Elaboration of an integrated applied research agenda is imperative to addressing these global food system challenges. We propose that core competencies of a new analytical framework lie at the intersection of four domains: (1) the ecology of agroecosystems; (2) equity in global and local food systems; (3) cultural dimensions of food and agriculture; and (4) human health. This intersection constitutes a new analytical framework for transitions toward global food system sustainability. © Copyright © 2018 Vandermeer, Aga, Allgeier, Badgley, Baucom, Blesh, Shapiro, Jones, Hoey, Jain, Perfecto and Wilson.</t>
+          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,15 +1988,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2013,186 +2013,6 @@
         </is>
       </c>
       <c r="H44" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Building sustainable social and solidarity economies: Place-based and network-based strategies of alternative development organizations in India</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>This article critically examines and analyzes place-based as well as network-based strategies of alternative development organizations that claim to be building sustainable social and solidarity economies (SSE) in the political context of neoliberal globalization. While the Indian state and market forces are actively promoting the neoliberal agri-food system, alternative development organizations are working with farmers to build the SSE based on the principles of democracy, inclusiveness, reciprocity, cooperativism, and socioecological sustainability. Using a case study approach, this article analyzes how SSE initiatives are aiming to reclaim control over the local agri-food sector. Specifically, this article examines how community development organizations mobilize farmers based on the principles of agro-ecology and the politics of seed and food sovereignties. This article uses the Center for Sustainable Agriculture, an alternative community development organization in south India, as a case study. © 2017 Community Development Society.</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Community context of food justice: Reflections on a free local produce program in a New Orleans food desert</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Food justice discourse has emerged partly in response to the critique of alternative food networks during the last decade, but its justice conceptualization tends to be too narrowly focused on food-related injustices rather than broader social injustices that shape food access and food sovereignty, a gap we address. Our analysis of a semi-experimental free local food program we administered in a New Orleans food desert demonstrates that several community context factors shape the residents' access to a local food market in this neighborhood: fragmented social ties, digital and generational divides, perpetual infrastructural failure, and the location of the market within the neighborhood. We argue that food justice discourse needs to incorporate social and cultural community contexts in its operationalization of food access and sovereignty, especially regarding how the latter concept is defined and executed in practice. © 2017 Laura McKinney et al.</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Deconstructing homegardens: food security and sovereignty in northern Nicaragua</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Development scholars and practitioners are promoting food security, food sovereignty, and the localization of food systems to prepare for the projected negative impacts of climate change. The implementation of biodiverse homegardens is often seen as a way not only to localize food production but also as a strategy in alignment with a food sovereignty agenda. While much scholarship has characterized and critiqued food security and sovereignty conceptualizations, relatively little research has examined people’s lived experiences in order to test how such theoretical visions play out on the ground in farming communities. Based on a case study of four coffee cooperatives in northern Nicaragua, we examine a non-governmental organization (NGO)-supported project promoting food security and sovereignty through development of homegardens. We ask: To what extent are homegardens an effective strategy to reach food sovereignty? And, why may farmers be resistant to changing their food production and consumption strategies to embrace biodiverse homegardens when they improve food security? We discuss characteristics of agroecological homegardens, the distinctions between food security, food sovereignty and dominant discourses of development, the history of food sovereignty in Nicaragua, and farmer perspectives on homegarden implementation. Despite historic critiques, NGOs are poised to facilitate the transformation of food and agricultural development by employing counter development strategies, a necessary step if homegardens are to be successful in the long term. To conclude, we propose some strategies NGOs and communities might pursue to move forward with homegardens as a food sovereignty strategy. This research suggests that a food sovereignty approach still rooted in mainstream development models faces significant obstacles to moving beyond food security and into a farmer-led food sovereignty agenda. © 2015, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>_</t>
         </is>
